--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H2">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09233266666666667</v>
+        <v>0.2457116666666667</v>
       </c>
       <c r="N2">
-        <v>0.276998</v>
+        <v>0.737135</v>
       </c>
       <c r="O2">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344261</v>
       </c>
       <c r="P2">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344259</v>
       </c>
       <c r="Q2">
-        <v>0.8409723605091112</v>
+        <v>6.588292881866112</v>
       </c>
       <c r="R2">
-        <v>7.568751244582001</v>
+        <v>59.294635936795</v>
       </c>
       <c r="S2">
-        <v>4.456215271650126E-06</v>
+        <v>3.411289272425302E-05</v>
       </c>
       <c r="T2">
-        <v>4.456215271650127E-06</v>
+        <v>3.4112892724253E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H3">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>31.51785566666667</v>
       </c>
       <c r="N3">
-        <v>94.55356700000002</v>
+        <v>94.553567</v>
       </c>
       <c r="O3">
-        <v>0.9813360759751099</v>
+        <v>0.9684638283904637</v>
       </c>
       <c r="P3">
-        <v>0.98133607597511</v>
+        <v>0.9684638283904636</v>
       </c>
       <c r="Q3">
-        <v>287.0668251559449</v>
+        <v>845.0915943770822</v>
       </c>
       <c r="R3">
-        <v>2583.601426403503</v>
+        <v>7605.824349393739</v>
       </c>
       <c r="S3">
-        <v>0.001521133904412283</v>
+        <v>0.00437571908506104</v>
       </c>
       <c r="T3">
-        <v>0.001521133904412283</v>
+        <v>0.004375719085061039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H4">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4826403333333333</v>
+        <v>0.737729</v>
       </c>
       <c r="N4">
-        <v>1.447921</v>
+        <v>2.213187</v>
       </c>
       <c r="O4">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="P4">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="Q4">
-        <v>4.395921779943222</v>
+        <v>19.78080563036433</v>
       </c>
       <c r="R4">
-        <v>39.56329601948899</v>
+        <v>178.027250673279</v>
       </c>
       <c r="S4">
-        <v>2.329348108052376E-05</v>
+        <v>0.0001024211449866189</v>
       </c>
       <c r="T4">
-        <v>2.329348108052377E-05</v>
+        <v>0.0001024211449866189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H5">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02446166666666667</v>
+        <v>0.042878</v>
       </c>
       <c r="N5">
-        <v>0.07338500000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="O5">
-        <v>0.0007616354434881704</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="P5">
-        <v>0.0007616354434881705</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="Q5">
-        <v>0.2227985641627778</v>
+        <v>1.149692344775333</v>
       </c>
       <c r="R5">
-        <v>2.005187077465</v>
+        <v>10.347231102978</v>
       </c>
       <c r="S5">
-        <v>1.18058382266314E-06</v>
+        <v>5.952882230109224E-06</v>
       </c>
       <c r="T5">
-        <v>1.180583822663141E-06</v>
+        <v>5.952882230109222E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
         <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J6">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09233266666666667</v>
+        <v>0.2457116666666667</v>
       </c>
       <c r="N6">
-        <v>0.276998</v>
+        <v>0.737135</v>
       </c>
       <c r="O6">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344261</v>
       </c>
       <c r="P6">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344259</v>
       </c>
       <c r="Q6">
-        <v>532.9324751800875</v>
+        <v>1418.216666155979</v>
       </c>
       <c r="R6">
-        <v>4796.392276620788</v>
+        <v>12763.94999540381</v>
       </c>
       <c r="S6">
-        <v>0.00282394754712046</v>
+        <v>0.007343248677588136</v>
       </c>
       <c r="T6">
-        <v>0.002823947547120461</v>
+        <v>0.007343248677588136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
         <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J7">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>31.51785566666667</v>
       </c>
       <c r="N7">
-        <v>94.55356700000002</v>
+        <v>94.553567</v>
       </c>
       <c r="O7">
-        <v>0.9813360759751099</v>
+        <v>0.9684638283904637</v>
       </c>
       <c r="P7">
-        <v>0.98133607597511</v>
+        <v>0.9684638283904636</v>
       </c>
       <c r="Q7">
         <v>181917.0770128891</v>
@@ -883,10 +883,10 @@
         <v>1637253.693116002</v>
       </c>
       <c r="S7">
-        <v>0.9639575506001491</v>
+        <v>0.9419310653190951</v>
       </c>
       <c r="T7">
-        <v>0.9639575506001493</v>
+        <v>0.9419310653190952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
         <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J8">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4826403333333333</v>
+        <v>0.737729</v>
       </c>
       <c r="N8">
-        <v>1.447921</v>
+        <v>2.213187</v>
       </c>
       <c r="O8">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="P8">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="Q8">
-        <v>2785.738967051124</v>
+        <v>4258.078491347925</v>
       </c>
       <c r="R8">
-        <v>25071.65070346012</v>
+        <v>38322.70642213133</v>
       </c>
       <c r="S8">
-        <v>0.01476130858841653</v>
+        <v>0.02204749809872717</v>
       </c>
       <c r="T8">
-        <v>0.01476130858841654</v>
+        <v>0.02204749809872717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
         <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J9">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02446166666666667</v>
+        <v>0.042878</v>
       </c>
       <c r="N9">
-        <v>0.07338500000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="O9">
-        <v>0.0007616354434881704</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="P9">
-        <v>0.0007616354434881705</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="Q9">
-        <v>141.1896464634789</v>
+        <v>247.4863934480227</v>
       </c>
       <c r="R9">
-        <v>1270.70681817131</v>
+        <v>2227.377541032204</v>
       </c>
       <c r="S9">
-        <v>0.0007481476066449396</v>
+        <v>0.001281436168941744</v>
       </c>
       <c r="T9">
-        <v>0.0007481476066449398</v>
+        <v>0.001281436168941744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H10">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.09233266666666667</v>
+        <v>0.2457116666666667</v>
       </c>
       <c r="N10">
-        <v>0.276998</v>
+        <v>0.737135</v>
       </c>
       <c r="O10">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344261</v>
       </c>
       <c r="P10">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344259</v>
       </c>
       <c r="Q10">
-        <v>8.64944952365</v>
+        <v>32.54347220011222</v>
       </c>
       <c r="R10">
-        <v>77.84504571285001</v>
+        <v>292.89124980101</v>
       </c>
       <c r="S10">
-        <v>4.583243263229512E-05</v>
+        <v>0.0001685037377577379</v>
       </c>
       <c r="T10">
-        <v>4.583243263229513E-05</v>
+        <v>0.0001685037377577378</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H11">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>31.51785566666667</v>
       </c>
       <c r="N11">
-        <v>94.55356700000002</v>
+        <v>94.553567</v>
       </c>
       <c r="O11">
-        <v>0.9813360759751099</v>
+        <v>0.9684638283904637</v>
       </c>
       <c r="P11">
-        <v>0.98133607597511</v>
+        <v>0.9684638283904636</v>
       </c>
       <c r="Q11">
-        <v>2952.498953232725</v>
+        <v>4174.40683061576</v>
       </c>
       <c r="R11">
-        <v>26572.49057909453</v>
+        <v>37569.66147554184</v>
       </c>
       <c r="S11">
-        <v>0.01564495046776765</v>
+        <v>0.02161426259481193</v>
       </c>
       <c r="T11">
-        <v>0.01564495046776765</v>
+        <v>0.02161426259481193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H12">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4826403333333333</v>
+        <v>0.737729</v>
       </c>
       <c r="N12">
-        <v>1.447921</v>
+        <v>2.213187</v>
       </c>
       <c r="O12">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="P12">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="Q12">
-        <v>45.212310571675</v>
+        <v>97.70908939088466</v>
       </c>
       <c r="R12">
-        <v>406.9107951450749</v>
+        <v>879.381804517962</v>
       </c>
       <c r="S12">
-        <v>0.0002395748044729037</v>
+        <v>0.0005059185656044477</v>
       </c>
       <c r="T12">
-        <v>0.0002395748044729037</v>
+        <v>0.0005059185656044478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H13">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02446166666666667</v>
+        <v>0.042878</v>
       </c>
       <c r="N13">
-        <v>0.07338500000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="O13">
-        <v>0.0007616354434881704</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="P13">
-        <v>0.0007616354434881705</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="Q13">
-        <v>2.291496159875</v>
+        <v>5.679009954742666</v>
       </c>
       <c r="R13">
-        <v>20.623465438875</v>
+        <v>51.111089592684</v>
       </c>
       <c r="S13">
-        <v>1.214237311721015E-05</v>
+        <v>2.940480346575438E-05</v>
       </c>
       <c r="T13">
-        <v>1.214237311721015E-05</v>
+        <v>2.940480346575438E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H14">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I14">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J14">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09233266666666667</v>
+        <v>0.2457116666666667</v>
       </c>
       <c r="N14">
-        <v>0.276998</v>
+        <v>0.737135</v>
       </c>
       <c r="O14">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344261</v>
       </c>
       <c r="P14">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344259</v>
       </c>
       <c r="Q14">
-        <v>0.1174498912024445</v>
+        <v>0.8172377404683333</v>
       </c>
       <c r="R14">
-        <v>1.057049020822</v>
+        <v>7.355139664215</v>
       </c>
       <c r="S14">
-        <v>6.223533892518556E-07</v>
+        <v>4.231497274133133E-06</v>
       </c>
       <c r="T14">
-        <v>6.223533892518558E-07</v>
+        <v>4.231497274133133E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H15">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I15">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J15">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>31.51785566666667</v>
       </c>
       <c r="N15">
-        <v>94.55356700000002</v>
+        <v>94.553567</v>
       </c>
       <c r="O15">
-        <v>0.9813360759751099</v>
+        <v>0.9684638283904637</v>
       </c>
       <c r="P15">
-        <v>0.98133607597511</v>
+        <v>0.9684638283904636</v>
       </c>
       <c r="Q15">
-        <v>40.09164743771812</v>
+        <v>104.8284825009003</v>
       </c>
       <c r="R15">
-        <v>360.824826939463</v>
+        <v>943.456342508103</v>
       </c>
       <c r="S15">
-        <v>0.0002124410027808952</v>
+        <v>0.0005427813914955396</v>
       </c>
       <c r="T15">
-        <v>0.0002124410027808953</v>
+        <v>0.0005427813914955396</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H16">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I16">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J16">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4826403333333333</v>
+        <v>0.737729</v>
       </c>
       <c r="N16">
-        <v>1.447921</v>
+        <v>2.213187</v>
       </c>
       <c r="O16">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="P16">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="Q16">
-        <v>0.6139328223298888</v>
+        <v>2.453688867187</v>
       </c>
       <c r="R16">
-        <v>5.525395400968999</v>
+        <v>22.083199804683</v>
       </c>
       <c r="S16">
-        <v>3.253159018184015E-06</v>
+        <v>1.270472133007778E-05</v>
       </c>
       <c r="T16">
-        <v>3.253159018184016E-06</v>
+        <v>1.270472133007779E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H17">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I17">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J17">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02446166666666667</v>
+        <v>0.042878</v>
       </c>
       <c r="N17">
-        <v>0.07338500000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="O17">
-        <v>0.0007616354434881704</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="P17">
-        <v>0.0007616354434881705</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="Q17">
-        <v>0.03111596569611111</v>
+        <v>0.142612356634</v>
       </c>
       <c r="R17">
-        <v>0.280043691265</v>
+        <v>1.283511209706</v>
       </c>
       <c r="S17">
-        <v>1.648799033575962E-07</v>
+        <v>7.38418906117389E-07</v>
       </c>
       <c r="T17">
-        <v>1.648799033575962E-07</v>
+        <v>7.38418906117389E-07</v>
       </c>
     </row>
   </sheetData>
